--- a/R/2022FallFseminar/time.xlsx
+++ b/R/2022FallFseminar/time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayumu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayumu/Documents/GitHub/ayumu-tanaka.github.io/R/2022FallFseminar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C13A3FF-C108-C040-A72D-A2AA9C1F2F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C7C70-3317-CE4C-8EF6-3A634EECD7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="500" windowWidth="30300" windowHeight="18440" xr2:uid="{198294C4-F914-8E4B-A648-35DBDBFA77A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" xr2:uid="{198294C4-F914-8E4B-A648-35DBDBFA77A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,126 +46,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>田中</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
+    <t>NO1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>岩元</t>
-    <rPh sb="0" eb="2">
-      <t>イワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青木</t>
-    <rPh sb="0" eb="2">
-      <t>アオキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>浅沼</t>
-    <rPh sb="0" eb="2">
-      <t>アサヌマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>白幡</t>
-    <rPh sb="0" eb="2">
-      <t>シラハタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>落合</t>
-    <rPh sb="0" eb="2">
-      <t>オチアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小田切</t>
-    <rPh sb="0" eb="3">
-      <t>オダギリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>古川</t>
-    <rPh sb="0" eb="2">
-      <t>フルカワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>矢嶋</t>
-    <rPh sb="0" eb="2">
-      <t>ヤジマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>神谷</t>
-    <rPh sb="0" eb="2">
-      <t>カミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>城戸</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キド </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>尾﨑</t>
-    <rPh sb="0" eb="1">
-      <t>オザキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve">カワサキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>林</t>
-    <rPh sb="0" eb="1">
-      <t>ハヤセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花島</t>
-    <rPh sb="0" eb="2">
-      <t>ハナセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>蓮見</t>
-    <rPh sb="0" eb="2">
-      <t>ハスミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>藤堂</t>
-    <rPh sb="0" eb="2">
-      <t>トウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡野</t>
-    <rPh sb="0" eb="2">
-      <t>オカノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>NO3</t>
+  </si>
+  <si>
+    <t>NO4</t>
+  </si>
+  <si>
+    <t>NO5</t>
+  </si>
+  <si>
+    <t>NO6</t>
+  </si>
+  <si>
+    <t>NO7</t>
+  </si>
+  <si>
+    <t>NO8</t>
+  </si>
+  <si>
+    <t>NO9</t>
+  </si>
+  <si>
+    <t>NO10</t>
+  </si>
+  <si>
+    <t>NO11</t>
+  </si>
+  <si>
+    <t>NO12</t>
+  </si>
+  <si>
+    <t>NO13</t>
+  </si>
+  <si>
+    <t>NO14</t>
+  </si>
+  <si>
+    <t>NO15</t>
+  </si>
+  <si>
+    <t>NO16</t>
+  </si>
+  <si>
+    <t>NO17</t>
   </si>
 </sst>
 </file>
@@ -540,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CC3EA3-0C79-A143-8787-6171C792383F}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="297" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
